--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_111.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_111.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,203 +488,224 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_93</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.04481605351170569</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_4</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1106719367588933</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C', 'C/7', 'A:min']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.96, 14.54)]</t>
+          <t>[['C:min', 'F:min', 'C:min/5']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(21.542879, 25.316122)]</t>
+          <t>[('0:00:00.700000', '0:00:03.780000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:01:24.323000', '0:01:27.713000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_290</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09249011857707509</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82), (36.52, 38.28), (9.26, 13.9)]</t>
+          <t>[['C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (56.78, 65.58), (1.92, 8.32)]</t>
+          <t>[('0:00:46.560000', '0:00:49.080000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:08.482392', '0:00:11.666439')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_3</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1239935587761675</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(18.76, 24.02)]</t>
+          <t>[['Bb:7', 'Eb', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(55.46, 59.64)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:17.360000', '0:00:20.120000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:31.890000', '0:00:35.470000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_99</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07238372093023256</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B', 'A', 'E'], ['F#:min', 'B', 'E']]</t>
-        </is>
+          <t>jaah_1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_14</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2109090909090909</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D', 'C', 'G'], ['A:min', 'D', 'G']]</t>
+          <t>[['Eb', 'Bb:7', 'Eb', 'Eb', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(20.614081, 24.271224), (16.376439, 18.860975)]</t>
+          <t>[['Ab', 'Eb:7', 'Ab', 'Ab', 'Ab', 'Ab'], ['Ab', 'Ab', 'Eb:7', 'Eb:7', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(39.886643, 43.090997), (98.07585, 110.185056)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:04.830000', '0:00:17.050000'), ('0:00:21.120000', '0:00:32.990000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:06.930000', '0:01:18.210000'), ('0:00:26.600000', '0:00:37.550000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2125874125874126</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#']]</t>
-        </is>
+          <t>jaah_66</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04072398190045249</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>[['Eb:7', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.34, 3.0)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(53.06, 65.64)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
+          <t>[('0:00:26.130000', '0:00:29.490000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:06.700000', '0:00:11.860000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -688,435 +714,444 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1366396761133603</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(22.829118, 26.567531)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(43.926916, 52.959478)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3080357142857143</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D/3', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(57.251357, 73.909779)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(62.48, 64.92)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:55.820000', '0:01:01.680000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_33</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02032390510948905</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min7', 'F:7', 'Bb:maj7']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Db:min7', 'Gb:7', 'Cb:maj7']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(51.17, 54.73)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(2.19, 5.12)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:01:02.100000', '0:01:11.780000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:08.740000', '0:00:23.220000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09980620155038759</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min', 'C:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(11.3, 39.0)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(21.86, 28.92)]</t>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:08.700000', '0:00:25.020000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2392857142857143</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(63.84, 65.24)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(236.4, 239.98)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1326086956521739</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5833333333333334</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['E', 'B', 'E', 'A', 'E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(86.923922, 92.322562)]</t>
+          <t>[['D:maj', 'A:maj', 'D:maj', 'G:maj', 'D:maj', 'A:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(123.22, 126.88)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:26.343061', '0:00:45.720113')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:27.771000', '0:00:54.976000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_65</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2644230769230769</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:min', 'F:min', 'G:hdim7']]</t>
-        </is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F#:min', 'F#:min', 'B:min(6)']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(51.29, 55.46)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(74.838, 79.91)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:17.900000', '0:01:52.420000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.194331983805668</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'C#', 'F#:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(134.22, 139.56), (2.66, 7.98)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(24.387324, 27.452358), (3.744784, 6.774988)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_86</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.04684684684684685</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'F:7', 'Bb']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(282.12, 287.58)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(14.59, 16.26)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(84.92, 105.44)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(88.18, 109.56)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
